--- a/批量导入模板/期末体育教师考核模板.xlsx
+++ b/批量导入模板/期末体育教师考核模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myGithub\ynyzjs\teacher_system\批量导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4685535-CB4E-4F9D-B94F-E5AEA0E8A7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D8329-F9E2-4785-9C3E-5842F510BE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="N2" sqref="N2:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,7 +578,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="G2" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1">
         <v>116.8</v>
@@ -596,10 +596,10 @@
         <v>8</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O2" s="1">
         <v>4</v>
@@ -628,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1">
         <v>87.2</v>
@@ -646,10 +646,10 @@
         <v>8</v>
       </c>
       <c r="M3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3" s="1">
         <v>4</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1">
         <v>88</v>
@@ -696,10 +696,10 @@
         <v>8</v>
       </c>
       <c r="M4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O4" s="1">
         <v>4</v>
@@ -731,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1">
         <v>104.8</v>
@@ -749,10 +749,10 @@
         <v>8</v>
       </c>
       <c r="M5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O5" s="1">
         <v>4</v>
@@ -784,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1">
         <v>92</v>
@@ -802,10 +802,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O6" s="1">
         <v>4</v>
@@ -905,10 +905,10 @@
         <v>8</v>
       </c>
       <c r="M8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O8" s="1">
         <v>4</v>
@@ -955,10 +955,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O9" s="1">
         <v>4</v>
